--- a/Personel.xlsx
+++ b/Personel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DFB8A-C1B9-40C8-AAF7-43481791CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566CCFE-9A45-4A70-8ADE-BC2FF8905B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AKDENİZ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="716">
   <si>
     <t>Mahalle Adı</t>
   </si>
@@ -937,9 +937,6 @@
   </si>
   <si>
     <t>Çamlıca</t>
-  </si>
-  <si>
-    <t>Çankaya</t>
   </si>
   <si>
     <t>Çevlik</t>
@@ -2568,12 +2565,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2633,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +2662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2681,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2713,7 +2710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +2718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2745,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2753,7 +2750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2761,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +2766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2777,7 +2774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2793,7 +2790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2801,7 +2798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2825,7 +2822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2879,9 +2876,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2901,63 +2898,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>411</v>
       </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>412</v>
       </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>413</v>
       </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>414</v>
       </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>415</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>416</v>
       </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>417</v>
-      </c>
       <c r="B8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2965,105 +2962,105 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>418</v>
       </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>419</v>
       </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>420</v>
       </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>421</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>422</v>
       </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>423</v>
       </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>424</v>
       </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>425</v>
       </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>426</v>
       </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>427</v>
       </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>429</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>430</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
@@ -3072,23 +3069,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>431</v>
       </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>432</v>
-      </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3096,15 +3093,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
         <v>433</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>434</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -3113,111 +3110,111 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>435</v>
       </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>436</v>
       </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>437</v>
       </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>438</v>
       </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>439</v>
       </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>440</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>441</v>
       </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>442</v>
       </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>443</v>
       </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>444</v>
       </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>445</v>
       </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>446</v>
       </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>447</v>
-      </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>271</v>
       </c>
@@ -3225,52 +3222,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>448</v>
       </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
         <v>449</v>
       </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>451</v>
       </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>452</v>
       </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>453</v>
-      </c>
-      <c r="B45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>454</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
@@ -3279,23 +3276,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>455</v>
       </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>456</v>
-      </c>
       <c r="B48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -3303,159 +3300,159 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>457</v>
       </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>458</v>
       </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>459</v>
       </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
         <v>460</v>
       </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>462</v>
       </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>463</v>
       </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" t="s">
         <v>464</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>466</v>
       </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>467</v>
       </c>
-      <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>385</v>
-      </c>
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>468</v>
       </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>469</v>
       </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>470</v>
       </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>471</v>
       </c>
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>472</v>
       </c>
-      <c r="B64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>473</v>
       </c>
-      <c r="B65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>474</v>
       </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>475</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>476</v>
       </c>
       <c r="B68" t="s">
         <v>114</v>
@@ -3470,25 +3467,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>477</v>
       </c>
-      <c r="B69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>478</v>
-      </c>
-      <c r="B70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>479</v>
       </c>
       <c r="B71" t="s">
         <v>114</v>
@@ -3503,31 +3500,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>480</v>
       </c>
-      <c r="B72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>481</v>
       </c>
-      <c r="B73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>482</v>
-      </c>
       <c r="B74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -3535,113 +3532,113 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>483</v>
       </c>
-      <c r="B76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>484</v>
       </c>
-      <c r="B77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>485</v>
       </c>
-      <c r="B78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>486</v>
       </c>
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>487</v>
       </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>488</v>
       </c>
-      <c r="B81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>489</v>
       </c>
-      <c r="B82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>490</v>
       </c>
-      <c r="B83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>491</v>
       </c>
-      <c r="B84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>492</v>
       </c>
-      <c r="B85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>493</v>
       </c>
-      <c r="B86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>494</v>
       </c>
-      <c r="B87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>495</v>
-      </c>
-      <c r="B88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>496</v>
       </c>
       <c r="B89" t="s">
         <v>114</v>
@@ -3656,33 +3653,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>497</v>
       </c>
-      <c r="B90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>498</v>
       </c>
-      <c r="B91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>499</v>
-      </c>
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>500</v>
       </c>
       <c r="B93" t="s">
         <v>114</v>
@@ -3697,9 +3694,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B94" t="s">
         <v>114</v>
@@ -3719,9 +3716,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3741,33 +3738,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>157</v>
@@ -3776,7 +3773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3784,31 +3781,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -3817,47 +3814,47 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3865,143 +3862,143 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -4009,143 +4006,143 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B36" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B42" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B43" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B47" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B49" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B50" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -4153,63 +4150,63 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B54" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B57" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4217,111 +4214,111 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B60" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B61" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B62" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B63" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B65" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B67" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B69" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>269</v>
       </c>
@@ -4329,599 +4326,599 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B74" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B77" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B80" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B81" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B82" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B83" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B84" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>578</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>579</v>
       </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>580</v>
       </c>
-      <c r="B87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>371</v>
-      </c>
-      <c r="B88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>581</v>
       </c>
-      <c r="B89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>582</v>
       </c>
-      <c r="B90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>583</v>
       </c>
-      <c r="B91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>584</v>
       </c>
-      <c r="B92" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>585</v>
       </c>
-      <c r="B93" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>586</v>
       </c>
-      <c r="B94" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>587</v>
       </c>
-      <c r="B95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>588</v>
       </c>
-      <c r="B96" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>589</v>
       </c>
-      <c r="B97" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>590</v>
       </c>
-      <c r="B98" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>591</v>
       </c>
-      <c r="B99" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>592</v>
       </c>
-      <c r="B100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>593</v>
       </c>
-      <c r="B101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>594</v>
       </c>
-      <c r="B102" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>595</v>
       </c>
-      <c r="B103" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>596</v>
       </c>
-      <c r="B104" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>597</v>
       </c>
-      <c r="B105" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>598</v>
       </c>
-      <c r="B106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>383</v>
-      </c>
-      <c r="B107" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>599</v>
       </c>
-      <c r="B108" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>600</v>
       </c>
-      <c r="B109" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>601</v>
       </c>
-      <c r="B110" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>602</v>
       </c>
-      <c r="B111" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>603</v>
       </c>
-      <c r="B112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>604</v>
       </c>
-      <c r="B113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>605</v>
       </c>
-      <c r="B114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>606</v>
       </c>
-      <c r="B115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>607</v>
       </c>
-      <c r="B116" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>608</v>
       </c>
-      <c r="B117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>609</v>
       </c>
-      <c r="B118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>610</v>
       </c>
-      <c r="B119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>611</v>
       </c>
-      <c r="B120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>612</v>
       </c>
-      <c r="B121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>613</v>
       </c>
-      <c r="B122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>614</v>
       </c>
-      <c r="B123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>615</v>
       </c>
-      <c r="B124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>616</v>
       </c>
-      <c r="B125" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>617</v>
       </c>
-      <c r="B126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>618</v>
       </c>
-      <c r="B127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>619</v>
       </c>
-      <c r="B128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>620</v>
       </c>
-      <c r="B129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>621</v>
       </c>
-      <c r="B130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>622</v>
       </c>
-      <c r="B131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>623</v>
       </c>
-      <c r="B132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>624</v>
       </c>
-      <c r="B133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>625</v>
       </c>
-      <c r="B134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>626</v>
       </c>
-      <c r="B135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>627</v>
       </c>
-      <c r="B136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>628</v>
       </c>
-      <c r="B137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>629</v>
       </c>
-      <c r="B138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>630</v>
       </c>
-      <c r="B139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>631</v>
       </c>
-      <c r="B140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>632</v>
       </c>
-      <c r="B141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>633</v>
       </c>
-      <c r="B142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>634</v>
       </c>
-      <c r="B143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>635</v>
       </c>
-      <c r="B144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>636</v>
       </c>
-      <c r="B145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>637</v>
       </c>
-      <c r="B146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>638</v>
-      </c>
       <c r="B147" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4929,159 +4926,159 @@
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>638</v>
+      </c>
+      <c r="B149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>639</v>
       </c>
-      <c r="B149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>317</v>
-      </c>
-      <c r="B150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>640</v>
       </c>
-      <c r="B151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>641</v>
       </c>
-      <c r="B152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>642</v>
       </c>
-      <c r="B153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>643</v>
       </c>
-      <c r="B154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>644</v>
       </c>
-      <c r="B155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>645</v>
       </c>
-      <c r="B156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>646</v>
       </c>
-      <c r="B157" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>647</v>
       </c>
-      <c r="B158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>648</v>
       </c>
-      <c r="B159" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>649</v>
       </c>
-      <c r="B160" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>650</v>
       </c>
-      <c r="B161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>651</v>
       </c>
-      <c r="B162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>652</v>
       </c>
-      <c r="B163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>653</v>
       </c>
-      <c r="B164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>654</v>
       </c>
-      <c r="B165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>655</v>
       </c>
-      <c r="B166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>656</v>
-      </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>110</v>
       </c>
@@ -5089,23 +5086,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>656</v>
+      </c>
+      <c r="B169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>657</v>
       </c>
-      <c r="B169" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>658</v>
-      </c>
       <c r="B170" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>246</v>
       </c>
@@ -5113,25 +5110,25 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>658</v>
+      </c>
+      <c r="B172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>659</v>
       </c>
-      <c r="B172" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>660</v>
-      </c>
-      <c r="B173" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>661</v>
       </c>
       <c r="B174" t="s">
         <v>165</v>
@@ -5151,9 +5148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5173,314 +5170,314 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>673</v>
-      </c>
       <c r="B13" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>674</v>
       </c>
-      <c r="B15" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>675</v>
       </c>
-      <c r="B16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>676</v>
-      </c>
       <c r="B17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>676</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>677</v>
       </c>
-      <c r="B18" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>678</v>
       </c>
-      <c r="B19" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>679</v>
       </c>
-      <c r="B20" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>680</v>
       </c>
-      <c r="B21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>681</v>
-      </c>
-      <c r="B22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>682</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -5488,33 +5485,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -5536,9 +5533,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -5566,15 +5563,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -5583,113 +5580,113 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>704</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>706</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>709</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>710</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>711</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="F13" t="s">
         <v>713</v>
       </c>
-      <c r="B13" t="s">
-        <v>672</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>671</v>
+      </c>
+      <c r="F14" t="s">
         <v>715</v>
-      </c>
-      <c r="B14" t="s">
-        <v>672</v>
-      </c>
-      <c r="F14" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5706,9 +5703,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5736,7 +5733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -5744,7 +5741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5777,7 +5774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -5801,7 +5798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -5833,7 +5830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5841,7 +5838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -5857,7 +5854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -5881,7 +5878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -5889,7 +5886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -5897,7 +5894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5961,7 +5958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -5993,7 +5990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -6001,7 +5998,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6009,7 +6006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -6017,7 +6014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -6041,7 +6038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -6107,7 +6104,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -6147,7 +6144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -6155,7 +6152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -6163,7 +6160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6281,9 +6278,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6311,7 +6308,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6319,7 +6316,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6327,7 +6324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -6335,7 +6332,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -6343,7 +6340,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -6351,7 +6348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -6359,7 +6356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -6375,7 +6372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -6383,7 +6380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -6405,9 +6402,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -6435,7 +6432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6459,7 +6456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -6467,7 +6464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -6475,7 +6472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6483,7 +6480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -6499,7 +6496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -6515,7 +6512,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6523,7 +6520,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -6531,7 +6528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -6539,7 +6536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -6547,7 +6544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -6555,7 +6552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -6579,7 +6576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -6587,7 +6584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -6595,7 +6592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -6603,7 +6600,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -6627,7 +6624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6635,7 +6632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -6643,7 +6640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -6651,7 +6648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -6667,7 +6664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -6675,7 +6672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -6697,9 +6694,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -6727,7 +6724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -6735,7 +6732,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -6743,7 +6740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -6751,7 +6748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -6767,7 +6764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -6775,7 +6772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -6783,7 +6780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -6791,7 +6788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -6799,7 +6796,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -6807,7 +6804,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6815,7 +6812,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -6823,7 +6820,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>171</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -6853,9 +6850,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6875,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -6891,7 +6888,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -6907,7 +6904,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -6915,7 +6912,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -6923,7 +6920,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -6947,7 +6944,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -6955,7 +6952,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -6971,7 +6968,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -6979,7 +6976,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -6996,7 +6993,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -7004,7 +7001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -7012,7 +7009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -7028,7 +7025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -7036,7 +7033,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -7044,7 +7041,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -7052,7 +7049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -7060,7 +7057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -7068,7 +7065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -7093,7 +7090,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -7101,7 +7098,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -7109,7 +7106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -7125,7 +7122,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -7133,7 +7130,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -7141,7 +7138,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -7149,7 +7146,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -7173,7 +7170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -7189,7 +7186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -7197,7 +7194,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -7205,7 +7202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>214</v>
       </c>
@@ -7213,7 +7210,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -7221,7 +7218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -7229,7 +7226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>218</v>
       </c>
@@ -7245,7 +7242,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -7253,7 +7250,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -7269,7 +7266,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -7277,7 +7274,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -7293,7 +7290,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -7301,7 +7298,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>226</v>
       </c>
@@ -7309,7 +7306,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>227</v>
       </c>
@@ -7317,7 +7314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -7341,7 +7338,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>230</v>
       </c>
@@ -7349,7 +7346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -7357,7 +7354,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -7365,7 +7362,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -7373,7 +7370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -7381,7 +7378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -7389,7 +7386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>236</v>
       </c>
@@ -7400,7 +7397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>237</v>
       </c>
@@ -7408,7 +7405,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -7416,7 +7413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>239</v>
       </c>
@@ -7424,7 +7421,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>240</v>
       </c>
@@ -7432,7 +7429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>241</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>242</v>
       </c>
@@ -7448,7 +7445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>243</v>
       </c>
@@ -7456,7 +7453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -7464,7 +7461,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -7504,16 +7501,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7533,436 +7530,436 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>272</v>
       </c>
       <c r="B27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>278</v>
       </c>
       <c r="B34" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
       <c r="B35" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>280</v>
       </c>
       <c r="B36" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>283</v>
       </c>
       <c r="B39" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>286</v>
       </c>
       <c r="B44" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>292</v>
       </c>
       <c r="B50" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>294</v>
       </c>
       <c r="B52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>295</v>
       </c>
       <c r="B53" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>297</v>
       </c>
       <c r="B55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7975,13 +7972,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -8017,63 +8019,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -8081,114 +8083,98 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F24" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F3 A4:F22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8199,9 +8185,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8221,551 +8207,551 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
         <v>319</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>321</v>
       </c>
-      <c r="B3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>322</v>
       </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>323</v>
       </c>
-      <c r="B5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>324</v>
       </c>
-      <c r="B6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>325</v>
       </c>
-      <c r="B7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>326</v>
-      </c>
       <c r="B8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>327</v>
       </c>
-      <c r="B10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>328</v>
       </c>
-      <c r="B11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>329</v>
       </c>
-      <c r="B12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>330</v>
       </c>
-      <c r="B13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>331</v>
-      </c>
       <c r="B14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>332</v>
       </c>
-      <c r="B16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>333</v>
       </c>
-      <c r="B17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>334</v>
       </c>
-      <c r="B18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>335</v>
       </c>
-      <c r="B19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>336</v>
       </c>
-      <c r="B20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>337</v>
       </c>
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>338</v>
       </c>
-      <c r="B22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>339</v>
       </c>
-      <c r="B23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>340</v>
       </c>
-      <c r="B24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>341</v>
       </c>
-      <c r="B25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>342</v>
       </c>
-      <c r="B26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>343</v>
       </c>
-      <c r="B27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>344</v>
       </c>
-      <c r="B28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>345</v>
-      </c>
       <c r="B29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>346</v>
       </c>
-      <c r="B31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>347</v>
       </c>
-      <c r="B32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>348</v>
       </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>349</v>
       </c>
-      <c r="B34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>350</v>
       </c>
-      <c r="B35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>351</v>
       </c>
-      <c r="B36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>352</v>
       </c>
-      <c r="B37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>353</v>
       </c>
-      <c r="B38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>354</v>
       </c>
-      <c r="B39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>355</v>
       </c>
-      <c r="B40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>356</v>
       </c>
-      <c r="B41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>357</v>
-      </c>
       <c r="B42" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>358</v>
       </c>
-      <c r="B44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>359</v>
       </c>
-      <c r="B45" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>360</v>
       </c>
-      <c r="B46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>361</v>
       </c>
-      <c r="B47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>362</v>
       </c>
-      <c r="B48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>363</v>
       </c>
-      <c r="B49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>364</v>
       </c>
-      <c r="B50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>365</v>
       </c>
-      <c r="B51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>366</v>
       </c>
-      <c r="B52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>367</v>
       </c>
-      <c r="B53" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>368</v>
       </c>
-      <c r="B54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>369</v>
-      </c>
       <c r="B55" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>370</v>
       </c>
-      <c r="B57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>371</v>
       </c>
-      <c r="B58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>372</v>
       </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>373</v>
-      </c>
-      <c r="B60" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>374</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -8773,39 +8759,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -8813,47 +8799,47 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -8861,39 +8847,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>228</v>
       </c>
@@ -8901,121 +8887,121 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B92" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B99" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B100" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B101" t="s">
         <v>44</v>
